--- a/prep/CW/po_trash.xlsx
+++ b/prep/CW/po_trash.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\pat\prep\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A8D23-DD6F-4D13-96A6-E156BF1B34EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B74DC5-AB82-433E-8AB7-46270D3100DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -359,6 +359,761 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C2">
+        <v>0.90909090909090784</v>
+      </c>
+      <c r="D2">
+        <v>0.90909090909090762</v>
+      </c>
+      <c r="E2">
+        <v>0.90818181818181687</v>
+      </c>
+      <c r="F2">
+        <v>0.90909090909090839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.2205309786927228E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.2458795130992807E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.2713802909557307E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.2927371924105104E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.3228422400103481E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.1039796948620148</v>
+      </c>
+      <c r="C5">
+        <v>0.10470828131249926</v>
+      </c>
+      <c r="D5">
+        <v>0.10544197297334759</v>
+      </c>
+      <c r="E5">
+        <v>0.10607462481118766</v>
+      </c>
+      <c r="F5">
+        <v>0.10692481526577119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.49333321898694055</v>
+      </c>
+      <c r="C6">
+        <v>0.49728383535520365</v>
+      </c>
+      <c r="D6">
+        <v>0.50126608829098107</v>
+      </c>
+      <c r="E6">
+        <v>0.50477495090901781</v>
+      </c>
+      <c r="F6">
+        <v>0.5093265192774169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3.6031733081318004E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.5418580466320557E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.4815861879806599E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.4189176365970075E-2</v>
+      </c>
+      <c r="F7">
+        <v>3.3641019589542145E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.23627921189787604</v>
+      </c>
+      <c r="C8">
+        <v>0.23935391635700737</v>
+      </c>
+      <c r="D8">
+        <v>0.24246863198527663</v>
+      </c>
+      <c r="E8">
+        <v>0.24537825556909998</v>
+      </c>
+      <c r="F8">
+        <v>0.24882018618811944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.2423562526770964E-3</v>
+      </c>
+      <c r="C10">
+        <v>9.2146014290954738E-3</v>
+      </c>
+      <c r="D10">
+        <v>9.1869299533324233E-3</v>
+      </c>
+      <c r="E10">
+        <v>9.1501822335190944E-3</v>
+      </c>
+      <c r="F10">
+        <v>9.1318360448386579E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.14637553547076612</v>
+      </c>
+      <c r="C11">
+        <v>0.14769423398852063</v>
+      </c>
+      <c r="D11">
+        <v>0.14902481267310189</v>
+      </c>
+      <c r="E11">
+        <v>0.15021701117448666</v>
+      </c>
+      <c r="F11">
+        <v>0.15172203962108524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.11701164252309541</v>
+      </c>
+      <c r="C12">
+        <v>0.11923708917768866</v>
+      </c>
+      <c r="D12">
+        <v>0.12150486164453157</v>
+      </c>
+      <c r="E12">
+        <v>0.12369194915413313</v>
+      </c>
+      <c r="F12">
+        <v>0.12617061930690215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.8588520487474121E-4</v>
+      </c>
+      <c r="C13">
+        <v>6.8519863309808896E-4</v>
+      </c>
+      <c r="D13">
+        <v>6.8451274858047308E-4</v>
+      </c>
+      <c r="E13">
+        <v>6.8314372308331229E-4</v>
+      </c>
+      <c r="F13">
+        <v>6.8314303857125013E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7.9179726363930988E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.9734539261375859E-2</v>
+      </c>
+      <c r="D15">
+        <v>8.0293239736680788E-2</v>
+      </c>
+      <c r="E15">
+        <v>8.0774999175100892E-2</v>
+      </c>
+      <c r="F15">
+        <v>8.1422412572884739E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1.9435989507327748E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.8793959823902484E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.8173138328218012E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.7555251625058605E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.6992340758983833E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4.0752875773151578E-2</v>
+      </c>
+      <c r="C17">
+        <v>4.0834463112036715E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.0916213788937686E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.0957130002726626E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.1080206465453836E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.27093527932351441</v>
+      </c>
+      <c r="C18">
+        <v>0.26957924689446744</v>
+      </c>
+      <c r="D18">
+        <v>0.26823000141451514</v>
+      </c>
+      <c r="E18">
+        <v>0.26662062140602805</v>
+      </c>
+      <c r="F18">
+        <v>0.26555173559705064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3.4922247929557677E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.5271819980904562E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.5624891251984682E-2</v>
+      </c>
+      <c r="E19">
+        <v>3.5945515273252543E-2</v>
+      </c>
+      <c r="F19">
+        <v>3.6341671912865664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.10279731066555163</v>
+      </c>
+      <c r="C20">
+        <v>0.10536981593746221</v>
+      </c>
+      <c r="D20">
+        <v>0.10800669821817947</v>
+      </c>
+      <c r="E20">
+        <v>0.11059885897541577</v>
+      </c>
+      <c r="F20">
+        <v>0.11348007826728214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.30736101170185959</v>
+      </c>
+      <c r="C22">
+        <v>0.31566806607217973</v>
+      </c>
+      <c r="D22">
+        <v>0.32419963542548191</v>
+      </c>
+      <c r="E22">
+        <v>0.33262882594654436</v>
+      </c>
+      <c r="F22">
+        <v>0.34196075497034062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1.0591334644917363E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.0845781122873321E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.1106340429128536E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.1361786258998493E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.1646388473514022E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.31125507188919954</v>
+      </c>
+      <c r="C24">
+        <v>0.31374760499742094</v>
+      </c>
+      <c r="D24">
+        <v>0.31626009833073365</v>
+      </c>
+      <c r="E24">
+        <v>0.3184739190190487</v>
+      </c>
+      <c r="F24">
+        <v>0.32134560631921444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9.1682339075994622E-3</v>
+      </c>
+      <c r="C26">
+        <v>9.16823390759945E-3</v>
+      </c>
+      <c r="D26">
+        <v>9.16823390759945E-3</v>
+      </c>
+      <c r="E26">
+        <v>9.1590656736918498E-3</v>
+      </c>
+      <c r="F26">
+        <v>9.1682339075994587E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4.5452079538526799E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.5634069846989325E-2</v>
+      </c>
+      <c r="D27">
+        <v>4.5816788845375656E-2</v>
+      </c>
+      <c r="E27">
+        <v>4.5954239211911788E-2</v>
+      </c>
+      <c r="F27">
+        <v>4.6184424594311588E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.13980921317216879</v>
+      </c>
+      <c r="C28">
+        <v>0.14218834893185517</v>
+      </c>
+      <c r="D28">
+        <v>0.14460797048525009</v>
+      </c>
+      <c r="E28">
+        <v>0.14692169801301408</v>
+      </c>
+      <c r="F28">
+        <v>0.14957143848675747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.18590630197738908</v>
+      </c>
+      <c r="C29">
+        <v>0.18590630197738889</v>
+      </c>
+      <c r="D29">
+        <v>0.18590630197738889</v>
+      </c>
+      <c r="E29">
+        <v>0.18572039567541143</v>
+      </c>
+      <c r="F29">
+        <v>0.18590630197738905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.10779310843561153</v>
+      </c>
+      <c r="C30">
+        <v>0.10725360338838615</v>
+      </c>
+      <c r="D30">
+        <v>0.10671679856662243</v>
+      </c>
+      <c r="E30">
+        <v>0.1060764977752227</v>
+      </c>
+      <c r="F30">
+        <v>0.10565123560855293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5.1764921122621991E-4</v>
+      </c>
+      <c r="C31">
+        <v>5.1661287646900952E-4</v>
+      </c>
+      <c r="D31">
+        <v>5.1557861645605844E-4</v>
+      </c>
+      <c r="E31">
+        <v>5.140318806066904E-4</v>
+      </c>
+      <c r="F31">
+        <v>5.1351630405668E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1.683278753104436E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.8130209592996705E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.9527633155219673E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.1011733275016369E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.2653910170348159E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5.6315357075971122E-2</v>
+      </c>
+      <c r="C34">
+        <v>5.5864383245532841E-2</v>
+      </c>
+      <c r="D34">
+        <v>5.5417020817140172E-2</v>
+      </c>
+      <c r="E34">
+        <v>5.4918267629785925E-2</v>
+      </c>
+      <c r="F34">
+        <v>5.4533014717538256E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5.9153011544040978E-4</v>
+      </c>
+      <c r="C36">
+        <v>6.4541323906911483E-4</v>
+      </c>
+      <c r="D36">
+        <v>7.0420463522055568E-4</v>
+      </c>
+      <c r="E36">
+        <v>7.6758305239040556E-4</v>
+      </c>
+      <c r="F36">
+        <v>8.3834137150718584E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -1874,759 +2629,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="C2">
-        <v>0.90909090909090784</v>
-      </c>
-      <c r="D2">
-        <v>0.90909090909090762</v>
-      </c>
-      <c r="E2">
-        <v>0.90818181818181687</v>
-      </c>
-      <c r="F2">
-        <v>0.90909090909090839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4.2205309786927228E-2</v>
-      </c>
-      <c r="C3">
-        <v>4.2458795130992807E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.2713802909557307E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.2927371924105104E-2</v>
-      </c>
-      <c r="F3">
-        <v>4.3228422400103481E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.1039796948620148</v>
-      </c>
-      <c r="C5">
-        <v>0.10470828131249926</v>
-      </c>
-      <c r="D5">
-        <v>0.10544197297334759</v>
-      </c>
-      <c r="E5">
-        <v>0.10607462481118766</v>
-      </c>
-      <c r="F5">
-        <v>0.10692481526577119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.49333321898694055</v>
-      </c>
-      <c r="C6">
-        <v>0.49728383535520365</v>
-      </c>
-      <c r="D6">
-        <v>0.50126608829098107</v>
-      </c>
-      <c r="E6">
-        <v>0.50477495090901781</v>
-      </c>
-      <c r="F6">
-        <v>0.5093265192774169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.6031733081318004E-2</v>
-      </c>
-      <c r="C7">
-        <v>3.5418580466320557E-2</v>
-      </c>
-      <c r="D7">
-        <v>3.4815861879806599E-2</v>
-      </c>
-      <c r="E7">
-        <v>3.4189176365970075E-2</v>
-      </c>
-      <c r="F7">
-        <v>3.3641019589542145E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.23627921189787604</v>
-      </c>
-      <c r="C8">
-        <v>0.23935391635700737</v>
-      </c>
-      <c r="D8">
-        <v>0.24246863198527663</v>
-      </c>
-      <c r="E8">
-        <v>0.24537825556909998</v>
-      </c>
-      <c r="F8">
-        <v>0.24882018618811944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9.2423562526770964E-3</v>
-      </c>
-      <c r="C10">
-        <v>9.2146014290954738E-3</v>
-      </c>
-      <c r="D10">
-        <v>9.1869299533324233E-3</v>
-      </c>
-      <c r="E10">
-        <v>9.1501822335190944E-3</v>
-      </c>
-      <c r="F10">
-        <v>9.1318360448386579E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.14637553547076612</v>
-      </c>
-      <c r="C11">
-        <v>0.14769423398852063</v>
-      </c>
-      <c r="D11">
-        <v>0.14902481267310189</v>
-      </c>
-      <c r="E11">
-        <v>0.15021701117448666</v>
-      </c>
-      <c r="F11">
-        <v>0.15172203962108524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.11701164252309541</v>
-      </c>
-      <c r="C12">
-        <v>0.11923708917768866</v>
-      </c>
-      <c r="D12">
-        <v>0.12150486164453157</v>
-      </c>
-      <c r="E12">
-        <v>0.12369194915413313</v>
-      </c>
-      <c r="F12">
-        <v>0.12617061930690215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6.8588520487474121E-4</v>
-      </c>
-      <c r="C13">
-        <v>6.8519863309808896E-4</v>
-      </c>
-      <c r="D13">
-        <v>6.8451274858047308E-4</v>
-      </c>
-      <c r="E13">
-        <v>6.8314372308331229E-4</v>
-      </c>
-      <c r="F13">
-        <v>6.8314303857125013E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>7.9179726363930988E-2</v>
-      </c>
-      <c r="C15">
-        <v>7.9734539261375859E-2</v>
-      </c>
-      <c r="D15">
-        <v>8.0293239736680788E-2</v>
-      </c>
-      <c r="E15">
-        <v>8.0774999175100892E-2</v>
-      </c>
-      <c r="F15">
-        <v>8.1422412572884739E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.9435989507327748E-3</v>
-      </c>
-      <c r="C16">
-        <v>1.8793959823902484E-3</v>
-      </c>
-      <c r="D16">
-        <v>1.8173138328218012E-3</v>
-      </c>
-      <c r="E16">
-        <v>1.7555251625058605E-3</v>
-      </c>
-      <c r="F16">
-        <v>1.6992340758983833E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.0752875773151578E-2</v>
-      </c>
-      <c r="C17">
-        <v>4.0834463112036715E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.0916213788937686E-2</v>
-      </c>
-      <c r="E17">
-        <v>4.0957130002726626E-2</v>
-      </c>
-      <c r="F17">
-        <v>4.1080206465453836E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.27093527932351441</v>
-      </c>
-      <c r="C18">
-        <v>0.26957924689446744</v>
-      </c>
-      <c r="D18">
-        <v>0.26823000141451514</v>
-      </c>
-      <c r="E18">
-        <v>0.26662062140602805</v>
-      </c>
-      <c r="F18">
-        <v>0.26555173559705064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3.4922247929557677E-2</v>
-      </c>
-      <c r="C19">
-        <v>3.5271819980904562E-2</v>
-      </c>
-      <c r="D19">
-        <v>3.5624891251984682E-2</v>
-      </c>
-      <c r="E19">
-        <v>3.5945515273252543E-2</v>
-      </c>
-      <c r="F19">
-        <v>3.6341671912865664E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.10279731066555163</v>
-      </c>
-      <c r="C20">
-        <v>0.10536981593746221</v>
-      </c>
-      <c r="D20">
-        <v>0.10800669821817947</v>
-      </c>
-      <c r="E20">
-        <v>0.11059885897541577</v>
-      </c>
-      <c r="F20">
-        <v>0.11348007826728214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.30736101170185959</v>
-      </c>
-      <c r="C22">
-        <v>0.31566806607217973</v>
-      </c>
-      <c r="D22">
-        <v>0.32419963542548191</v>
-      </c>
-      <c r="E22">
-        <v>0.33262882594654436</v>
-      </c>
-      <c r="F22">
-        <v>0.34196075497034062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1.0591334644917363E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.0845781122873321E-2</v>
-      </c>
-      <c r="D23">
-        <v>1.1106340429128536E-2</v>
-      </c>
-      <c r="E23">
-        <v>1.1361786258998493E-2</v>
-      </c>
-      <c r="F23">
-        <v>1.1646388473514022E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.31125507188919954</v>
-      </c>
-      <c r="C24">
-        <v>0.31374760499742094</v>
-      </c>
-      <c r="D24">
-        <v>0.31626009833073365</v>
-      </c>
-      <c r="E24">
-        <v>0.3184739190190487</v>
-      </c>
-      <c r="F24">
-        <v>0.32134560631921444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>9.1682339075994622E-3</v>
-      </c>
-      <c r="C26">
-        <v>9.16823390759945E-3</v>
-      </c>
-      <c r="D26">
-        <v>9.16823390759945E-3</v>
-      </c>
-      <c r="E26">
-        <v>9.1590656736918498E-3</v>
-      </c>
-      <c r="F26">
-        <v>9.1682339075994587E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>4.5452079538526799E-2</v>
-      </c>
-      <c r="C27">
-        <v>4.5634069846989325E-2</v>
-      </c>
-      <c r="D27">
-        <v>4.5816788845375656E-2</v>
-      </c>
-      <c r="E27">
-        <v>4.5954239211911788E-2</v>
-      </c>
-      <c r="F27">
-        <v>4.6184424594311588E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0.13980921317216879</v>
-      </c>
-      <c r="C28">
-        <v>0.14218834893185517</v>
-      </c>
-      <c r="D28">
-        <v>0.14460797048525009</v>
-      </c>
-      <c r="E28">
-        <v>0.14692169801301408</v>
-      </c>
-      <c r="F28">
-        <v>0.14957143848675747</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0.18590630197738908</v>
-      </c>
-      <c r="C29">
-        <v>0.18590630197738889</v>
-      </c>
-      <c r="D29">
-        <v>0.18590630197738889</v>
-      </c>
-      <c r="E29">
-        <v>0.18572039567541143</v>
-      </c>
-      <c r="F29">
-        <v>0.18590630197738905</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0.10779310843561153</v>
-      </c>
-      <c r="C30">
-        <v>0.10725360338838615</v>
-      </c>
-      <c r="D30">
-        <v>0.10671679856662243</v>
-      </c>
-      <c r="E30">
-        <v>0.1060764977752227</v>
-      </c>
-      <c r="F30">
-        <v>0.10565123560855293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>5.1764921122621991E-4</v>
-      </c>
-      <c r="C31">
-        <v>5.1661287646900952E-4</v>
-      </c>
-      <c r="D31">
-        <v>5.1557861645605844E-4</v>
-      </c>
-      <c r="E31">
-        <v>5.140318806066904E-4</v>
-      </c>
-      <c r="F31">
-        <v>5.1351630405668E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1.683278753104436E-2</v>
-      </c>
-      <c r="C32">
-        <v>1.8130209592996705E-2</v>
-      </c>
-      <c r="D32">
-        <v>1.9527633155219673E-2</v>
-      </c>
-      <c r="E32">
-        <v>2.1011733275016369E-2</v>
-      </c>
-      <c r="F32">
-        <v>2.2653910170348159E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>5.6315357075971122E-2</v>
-      </c>
-      <c r="C34">
-        <v>5.5864383245532841E-2</v>
-      </c>
-      <c r="D34">
-        <v>5.5417020817140172E-2</v>
-      </c>
-      <c r="E34">
-        <v>5.4918267629785925E-2</v>
-      </c>
-      <c r="F34">
-        <v>5.4533014717538256E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>5.9153011544040978E-4</v>
-      </c>
-      <c r="C36">
-        <v>6.4541323906911483E-4</v>
-      </c>
-      <c r="D36">
-        <v>7.0420463522055568E-4</v>
-      </c>
-      <c r="E36">
-        <v>7.6758305239040556E-4</v>
-      </c>
-      <c r="F36">
-        <v>8.3834137150718584E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>